--- a/Caren Glowa_.xlsx
+++ b/Caren Glowa_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
   <si>
     <t>Date</t>
   </si>
@@ -27,1012 +27,1147 @@
     <t>Caren Glowa</t>
   </si>
   <si>
-    <t>03/12/18 Mon 7:50 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 7:45 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 7:50 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:00 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 8:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 7:55 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 7:50 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 7:55 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:05 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 8:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:00 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 7:55 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:00 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:10 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 8:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:05 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:00 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:05 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:15 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 8:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:10 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:05 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:10 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:20 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 8:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:15 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:10 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:15 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:25 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:00 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:20 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:15 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:20 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:30 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:05 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:25 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:20 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:25 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:35 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:10 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:30 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:25 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:30 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:40 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:15 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:35 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:30 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:35 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:45 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:40 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:35 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:40 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:50 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:45 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:40 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:45 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 8:55 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:50 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:45 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:50 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:00 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 8:55 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:50 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 8:55 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:05 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:00 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 8:55 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:00 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:10 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:05 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:00 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:05 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:15 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:10 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:05 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:10 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:20 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 9:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:15 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:10 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:15 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:25 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:00 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:20 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:15 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:20 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:30 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:05 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:25 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:20 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:25 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:35 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:10 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:30 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:25 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:30 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:40 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:15 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:35 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:30 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:35 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:45 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:40 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:35 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:40 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:50 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:45 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:40 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:45 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 9:55 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:50 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:45 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:50 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:00 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 9:55 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:50 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 9:55 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:05 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:00 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 9:55 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:00 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:10 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:05 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:00 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:05 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:15 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:10 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:05 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:10 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:20 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 10:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:15 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:10 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:15 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:25 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:00 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:20 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:15 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:20 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:30 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:05 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:25 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:20 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:25 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:35 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:10 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:30 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:25 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:30 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:40 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:15 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:35 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:30 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:35 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:45 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:40 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:35 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:40 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:50 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:45 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:40 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:45 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 10:55 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:50 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:45 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:50 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:00 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 10:55 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:50 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 10:55 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:05 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:00 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 10:55 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:00 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:10 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:05 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:00 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:05 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:15 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:10 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:05 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:10 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:20 AM</t>
-  </si>
-  <si>
-    <t>03/18/18 Sun 11:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:15 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:10 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:15 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:25 AM</t>
-  </si>
-  <si>
-    <t>03/19/18 Mon 12:00 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:20 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:15 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:20 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:30 AM</t>
-  </si>
-  <si>
-    <t>03/19/18 Mon 12:05 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:25 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:20 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:25 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:35 AM</t>
-  </si>
-  <si>
-    <t>03/19/18 Mon 12:10 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:30 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:25 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:30 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:40 AM</t>
-  </si>
-  <si>
-    <t>03/19/18 Mon 12:15 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:35 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:30 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:35 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:45 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:40 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:35 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:40 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:50 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:45 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:40 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:45 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 11:55 AM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:50 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:45 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:50 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:00 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 11:55 AM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:50 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 11:55 AM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:05 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:00 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 11:55 AM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:00 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:10 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:05 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:00 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:05 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:15 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:10 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:05 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:10 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:15 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:10 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:15 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:20 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:15 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:20 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:25 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:20 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:25 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:30 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:25 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:30 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:35 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:30 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:35 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:40 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:35 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:40 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:45 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:40 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:45 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 12:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:50 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:45 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:50 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:00 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 12:55 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:50 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 12:55 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:05 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:00 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 12:55 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:00 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:10 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:05 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:00 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:05 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:15 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:10 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:05 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:10 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:15 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:10 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:15 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:15 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/16/18 Fri 1:55 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:50 PM</t>
-  </si>
-  <si>
-    <t>03/13/18 Tue 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:50 PM</t>
+    <t>03/19/18 Mon 7:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 7:55 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:00 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 7:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 7:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 7:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:00 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:05 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:00 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 7:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 7:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:05 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:10 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:00 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 7:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:10 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:15 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:05 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:15 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:20 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:10 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:20 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:25 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:15 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:25 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:30 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:20 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:30 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:25 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:30 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 2:00 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:50 PM</t>
+  </si>
+  <si>
+    <t>Average Students</t>
+  </si>
+  <si>
+    <t>Average Tabby</t>
+  </si>
+  <si>
+    <t>Students/Tabby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mon 7:40 AM -  Mon 9:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 7:55 AM -  Tue 8:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 2:10 PM -  Tue 2:35 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 8:00 AM -  Wed 9:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 12:10 PM -  Wed 12:35 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 2:00 PM -  Wed 2:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 7:55 AM -  Thu 8:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 9:05 AM -  Thu 9:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 2:00 PM -  Thu 2:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 3:40 PM -  Thu 4:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 7:50 AM -  Fri 9:25 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 10:25 AM -  Fri 12:10 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 1:30 PM -  Fri 2:10 PM</t>
   </si>
 </sst>
 </file>
@@ -1066,6 +1201,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00c0f7f4"/>
+        <bgColor rgb="00c0f7f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+        <bgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00dff7c0"/>
         <bgColor rgb="00dff7c0"/>
       </patternFill>
@@ -1074,18 +1221,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00f2b8ea"/>
         <bgColor rgb="00f2b8ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c0f7f4"/>
-        <bgColor rgb="00c0f7f4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-        <bgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -1105,8 +1240,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -1548,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="n"/>
       <c r="I3" t="s">
@@ -1560,28 +1695,28 @@
       <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>3</v>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="n"/>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="n"/>
       <c r="Q3" t="s">
         <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T3" s="1" t="n"/>
     </row>
@@ -1590,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="n"/>
       <c r="E4" t="s">
@@ -1602,18 +1737,18 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>3</v>
+      <c r="G4" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="n"/>
       <c r="I4" t="s">
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="n"/>
       <c r="M4" t="s">
@@ -1622,17 +1757,17 @@
       <c r="N4" t="n">
         <v>2</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>2</v>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n"/>
       <c r="Q4" t="s">
         <v>12</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="1" t="n"/>
@@ -1645,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n"/>
       <c r="E5" t="s">
@@ -1654,37 +1789,37 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>6</v>
+      <c r="G5" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="n"/>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="n"/>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="n"/>
       <c r="Q5" t="s">
         <v>17</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="1" t="n"/>
@@ -1696,7 +1831,7 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -1704,9 +1839,9 @@
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n"/>
@@ -1714,30 +1849,30 @@
         <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="n"/>
       <c r="M6" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="n"/>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T6" s="1" t="n"/>
     </row>
@@ -1748,8 +1883,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>2</v>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" t="s">
@@ -1758,38 +1893,38 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
+      <c r="G7" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="H7" s="1" t="n"/>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="n"/>
       <c r="M7" t="s">
         <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1" t="n"/>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T7" s="1" t="n"/>
     </row>
@@ -1798,10 +1933,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" t="s">
@@ -1810,38 +1945,38 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>5</v>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="n"/>
       <c r="M8" t="s">
         <v>31</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="n"/>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T8" s="1" t="n"/>
     </row>
@@ -1850,50 +1985,50 @@
         <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="n"/>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="n"/>
       <c r="M9" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1" t="n"/>
       <c r="Q9" t="s">
         <v>37</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T9" s="1" t="n"/>
     </row>
@@ -1902,50 +2037,50 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="n"/>
       <c r="I10" t="s">
         <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="n"/>
       <c r="M10" t="s">
         <v>41</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P10" s="1" t="n"/>
       <c r="Q10" t="s">
         <v>42</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="T10" s="1" t="n"/>
     </row>
@@ -1954,9 +2089,9 @@
         <v>43</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -1964,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>2</v>
@@ -1974,30 +2109,30 @@
         <v>45</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="n"/>
       <c r="M11" t="s">
         <v>46</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="n"/>
       <c r="Q11" t="s">
         <v>47</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T11" s="1" t="n"/>
     </row>
@@ -2006,49 +2141,49 @@
         <v>48</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="n"/>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="n"/>
       <c r="I12" t="s">
         <v>50</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="n"/>
       <c r="M12" t="s">
         <v>51</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P12" s="1" t="n"/>
       <c r="Q12" t="s">
         <v>52</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="1" t="n"/>
@@ -2060,48 +2195,48 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" t="s">
         <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="n"/>
       <c r="I13" t="s">
         <v>55</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="n"/>
       <c r="M13" t="s">
         <v>56</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="n"/>
       <c r="Q13" t="s">
         <v>57</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="T13" s="1" t="n"/>
     </row>
@@ -2110,10 +2245,10 @@
         <v>58</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" t="s">
@@ -2122,18 +2257,18 @@
       <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>1</v>
+      <c r="G14" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="n"/>
       <c r="I14" t="s">
         <v>60</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="n"/>
       <c r="M14" t="s">
@@ -2142,18 +2277,18 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>4</v>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" s="1" t="n"/>
       <c r="Q14" t="s">
         <v>62</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T14" s="1" t="n"/>
     </row>
@@ -2162,9 +2297,9 @@
         <v>63</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="n"/>
@@ -2174,38 +2309,38 @@
       <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>2</v>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n"/>
       <c r="I15" t="s">
         <v>65</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" t="s">
         <v>66</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="n"/>
       <c r="Q15" t="s">
         <v>67</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="n"/>
     </row>
@@ -2214,50 +2349,50 @@
         <v>68</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n"/>
       <c r="E16" t="s">
         <v>69</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n"/>
       <c r="I16" t="s">
         <v>70</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" t="s">
         <v>71</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" s="1" t="n"/>
       <c r="Q16" t="s">
         <v>72</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="T16" s="1" t="n"/>
     </row>
@@ -2266,10 +2401,10 @@
         <v>73</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="n"/>
       <c r="E17" t="s">
@@ -2278,28 +2413,28 @@
       <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>2</v>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" t="s">
         <v>75</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" t="s">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" t="s">
@@ -2308,8 +2443,8 @@
       <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
+      <c r="S17" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="T17" s="1" t="n"/>
     </row>
@@ -2320,8 +2455,8 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>3</v>
+      <c r="C18" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="n"/>
       <c r="E18" t="s">
@@ -2330,8 +2465,8 @@
       <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>1</v>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n"/>
       <c r="I18" t="s">
@@ -2340,18 +2475,18 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" s="2" t="n">
-        <v>4</v>
+      <c r="K18" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" t="s">
         <v>81</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="P18" s="1" t="n"/>
       <c r="Q18" t="s">
@@ -2360,8 +2495,8 @@
       <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
+      <c r="S18" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T18" s="1" t="n"/>
     </row>
@@ -2372,7 +2507,7 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="n"/>
@@ -2380,7 +2515,7 @@
         <v>84</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2390,10 +2525,10 @@
         <v>85</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" t="s">
@@ -2402,8 +2537,8 @@
       <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>0</v>
+      <c r="O19" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="P19" s="1" t="n"/>
       <c r="Q19" t="s">
@@ -2412,8 +2547,8 @@
       <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
+      <c r="S19" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T19" s="1" t="n"/>
     </row>
@@ -2425,14 +2560,14 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="n"/>
       <c r="E20" t="s">
         <v>89</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2442,30 +2577,30 @@
         <v>90</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" t="s">
         <v>91</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="P20" s="1" t="n"/>
       <c r="Q20" t="s">
         <v>92</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T20" s="1" t="n"/>
     </row>
@@ -2474,17 +2609,17 @@
         <v>93</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="n"/>
       <c r="E21" t="s">
         <v>94</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2494,10 +2629,10 @@
         <v>95</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" t="s">
@@ -2506,18 +2641,18 @@
       <c r="N21" t="n">
         <v>3</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="O21" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" t="s">
         <v>97</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T21" s="1" t="n"/>
     </row>
@@ -2526,10 +2661,10 @@
         <v>98</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="n"/>
       <c r="E22" t="s">
@@ -2546,10 +2681,10 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" t="s">
@@ -2558,8 +2693,8 @@
       <c r="N22" t="n">
         <v>3</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="O22" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="n"/>
       <c r="Q22" t="s">
@@ -2568,8 +2703,8 @@
       <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
+      <c r="S22" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="T22" s="1" t="n"/>
     </row>
@@ -2578,10 +2713,10 @@
         <v>103</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="n"/>
       <c r="E23" t="s">
@@ -2598,7 +2733,7 @@
         <v>105</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2608,17 +2743,17 @@
         <v>106</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="P23" s="1" t="n"/>
       <c r="Q23" t="s">
         <v>107</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2632,8 +2767,8 @@
       <c r="B24" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>2</v>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="n"/>
       <c r="E24" t="s">
@@ -2660,7 +2795,7 @@
         <v>111</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2682,7 +2817,7 @@
         <v>113</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -2692,7 +2827,7 @@
         <v>114</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2702,7 +2837,7 @@
         <v>115</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2712,7 +2847,7 @@
         <v>116</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2722,7 +2857,7 @@
         <v>117</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2734,17 +2869,17 @@
         <v>118</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="n"/>
       <c r="E26" t="s">
         <v>119</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2764,7 +2899,7 @@
         <v>121</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2786,7 +2921,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2796,7 +2931,7 @@
         <v>124</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2806,7 +2941,7 @@
         <v>125</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2816,7 +2951,7 @@
         <v>126</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2826,7 +2961,7 @@
         <v>127</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2838,7 +2973,7 @@
         <v>128</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2848,7 +2983,7 @@
         <v>129</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2858,7 +2993,7 @@
         <v>130</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2868,7 +3003,7 @@
         <v>131</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2878,7 +3013,7 @@
         <v>132</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2900,7 +3035,7 @@
         <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2910,7 +3045,7 @@
         <v>135</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2920,7 +3055,7 @@
         <v>136</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2930,7 +3065,7 @@
         <v>137</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2942,7 +3077,7 @@
         <v>138</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2952,7 +3087,7 @@
         <v>139</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2962,7 +3097,7 @@
         <v>140</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2972,7 +3107,7 @@
         <v>141</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2982,7 +3117,7 @@
         <v>142</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2994,7 +3129,7 @@
         <v>143</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3004,7 +3139,7 @@
         <v>144</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3014,7 +3149,7 @@
         <v>145</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3024,7 +3159,7 @@
         <v>146</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3034,7 +3169,7 @@
         <v>147</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3046,7 +3181,7 @@
         <v>148</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3056,7 +3191,7 @@
         <v>149</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3066,7 +3201,7 @@
         <v>150</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3086,7 +3221,7 @@
         <v>152</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3098,7 +3233,7 @@
         <v>153</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3118,7 +3253,7 @@
         <v>155</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3128,7 +3263,7 @@
         <v>156</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3138,7 +3273,7 @@
         <v>157</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3150,7 +3285,7 @@
         <v>158</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3170,10 +3305,10 @@
         <v>160</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
-      </c>
-      <c r="K34" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" t="s">
@@ -3190,10 +3325,10 @@
         <v>162</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T34" s="1" t="n"/>
     </row>
@@ -3212,7 +3347,7 @@
         <v>164</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3224,15 +3359,15 @@
       <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" s="2" t="n">
-        <v>4</v>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" t="s">
         <v>166</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3242,10 +3377,10 @@
         <v>167</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S35" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="T35" s="1" t="n"/>
     </row>
@@ -3254,7 +3389,7 @@
         <v>168</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3264,7 +3399,7 @@
         <v>169</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3274,17 +3409,17 @@
         <v>170</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" t="s">
         <v>171</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3294,10 +3429,10 @@
         <v>172</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="T36" s="1" t="n"/>
     </row>
@@ -3316,7 +3451,7 @@
         <v>174</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3328,15 +3463,15 @@
       <c r="J37" t="n">
         <v>4</v>
       </c>
-      <c r="K37" s="2" t="n">
-        <v>3</v>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" t="s">
         <v>176</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3346,10 +3481,10 @@
         <v>177</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="T37" s="1" t="n"/>
     </row>
@@ -3368,7 +3503,7 @@
         <v>179</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3380,15 +3515,15 @@
       <c r="J38" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="2" t="n">
-        <v>3</v>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" t="s">
         <v>181</v>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3398,10 +3533,10 @@
         <v>182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="T38" s="1" t="n"/>
     </row>
@@ -3410,7 +3545,7 @@
         <v>183</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3420,7 +3555,7 @@
         <v>184</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3432,15 +3567,15 @@
       <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>1</v>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" t="s">
         <v>186</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3450,10 +3585,10 @@
         <v>187</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="T39" s="1" t="n"/>
     </row>
@@ -3462,7 +3597,7 @@
         <v>188</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3472,7 +3607,7 @@
         <v>189</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3484,15 +3619,15 @@
       <c r="J40" t="n">
         <v>4</v>
       </c>
-      <c r="K40" s="4" t="n">
-        <v>7</v>
+      <c r="K40" t="n">
+        <v>0</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" t="s">
         <v>191</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3502,10 +3637,10 @@
         <v>192</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S40" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="T40" s="1" t="n"/>
     </row>
@@ -3514,7 +3649,7 @@
         <v>193</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3524,7 +3659,7 @@
         <v>194</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3536,15 +3671,15 @@
       <c r="J41" t="n">
         <v>4</v>
       </c>
-      <c r="K41" s="2" t="n">
-        <v>3</v>
+      <c r="K41" t="n">
+        <v>0</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" t="s">
         <v>196</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3554,10 +3689,10 @@
         <v>197</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="T41" s="1" t="n"/>
     </row>
@@ -3566,7 +3701,7 @@
         <v>198</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3586,30 +3721,30 @@
         <v>200</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" t="s">
         <v>201</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" s="1" t="n"/>
       <c r="Q42" t="s">
         <v>202</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S42" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="T42" s="1" t="n"/>
     </row>
@@ -3618,7 +3753,7 @@
         <v>203</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3638,10 +3773,10 @@
         <v>205</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" t="s">
@@ -3650,18 +3785,18 @@
       <c r="N43" t="n">
         <v>4</v>
       </c>
-      <c r="O43" s="2" t="n">
-        <v>4</v>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" s="1" t="n"/>
       <c r="Q43" t="s">
         <v>207</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T43" s="1" t="n"/>
     </row>
@@ -3670,7 +3805,7 @@
         <v>208</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3680,7 +3815,7 @@
         <v>209</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3690,10 +3825,10 @@
         <v>210</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" t="s">
@@ -3702,18 +3837,18 @@
       <c r="N44" t="n">
         <v>4</v>
       </c>
-      <c r="O44" s="2" t="n">
-        <v>3</v>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" s="1" t="n"/>
       <c r="Q44" t="s">
         <v>212</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="T44" s="1" t="n"/>
     </row>
@@ -3722,7 +3857,7 @@
         <v>213</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -3732,7 +3867,7 @@
         <v>214</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3744,28 +3879,28 @@
       <c r="J45" t="n">
         <v>4</v>
       </c>
-      <c r="K45" s="2" t="n">
-        <v>5</v>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" t="s">
         <v>216</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
-      </c>
-      <c r="O45" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" s="1" t="n"/>
       <c r="Q45" t="s">
         <v>217</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S45" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="T45" s="1" t="n"/>
     </row>
@@ -3796,28 +3931,28 @@
       <c r="J46" t="n">
         <v>4</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <v>3</v>
+      <c r="K46" t="n">
+        <v>0</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" t="s">
         <v>221</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" s="1" t="n"/>
       <c r="Q46" t="s">
         <v>222</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="T46" s="1" t="n"/>
     </row>
@@ -3836,7 +3971,7 @@
         <v>224</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3846,10 +3981,10 @@
         <v>225</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" t="s">
@@ -3858,18 +3993,18 @@
       <c r="N47" t="n">
         <v>4</v>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>9</v>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" s="1" t="n"/>
       <c r="Q47" t="s">
         <v>227</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="T47" s="1" t="n"/>
     </row>
@@ -3878,7 +4013,7 @@
         <v>228</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3888,7 +4023,7 @@
         <v>229</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3898,10 +4033,10 @@
         <v>230</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" t="s">
@@ -3910,34 +4045,44 @@
       <c r="N48" t="n">
         <v>4</v>
       </c>
-      <c r="O48" s="3" t="n">
-        <v>1</v>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" s="1" t="n"/>
+      <c r="Q48" t="s">
+        <v>232</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" s="1" t="n"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="n"/>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="n"/>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J49" t="n">
         <v>3</v>
@@ -3947,39 +4092,49 @@
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" s="1" t="n"/>
+      <c r="Q49" t="s">
+        <v>237</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1" t="n"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="n"/>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="n"/>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
@@ -3989,239 +4144,299 @@
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="n"/>
+      <c r="Q50" t="s">
+        <v>242</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" s="1" t="n"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="n"/>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="n"/>
       <c r="I51" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N51" t="n">
-        <v>5</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="n"/>
+      <c r="Q51" t="s">
+        <v>247</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" s="1" t="n"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="n"/>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="n"/>
       <c r="I52" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" s="1" t="n"/>
+      <c r="Q52" t="s">
+        <v>252</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" s="1" t="n"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="n"/>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="n"/>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" s="1" t="n"/>
+      <c r="Q53" t="s">
+        <v>257</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1" t="n"/>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="n"/>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="n"/>
       <c r="I54" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="K54" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" s="1" t="n"/>
+      <c r="Q54" t="s">
+        <v>262</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1" t="n"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="n"/>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" s="1" t="n"/>
       <c r="I55" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N55" t="n">
         <v>4</v>
       </c>
-      <c r="O55" s="2" t="n">
-        <v>3</v>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" s="1" t="n"/>
+      <c r="Q55" t="s">
+        <v>267</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" s="1" t="n"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="n"/>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F56" t="n">
         <v>4</v>
@@ -4231,39 +4446,49 @@
       </c>
       <c r="H56" s="1" t="n"/>
       <c r="I56" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N56" t="n">
-        <v>5</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" s="1" t="n"/>
+      <c r="Q56" t="s">
+        <v>272</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1" t="n"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="n"/>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F57" t="n">
         <v>4</v>
@@ -4273,29 +4498,39 @@
       </c>
       <c r="H57" s="1" t="n"/>
       <c r="I57" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N57" t="n">
-        <v>4</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" s="1" t="n"/>
+      <c r="Q57" t="s">
+        <v>277</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1" t="n"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B58" t="n">
         <v>4</v>
@@ -4305,7 +4540,7 @@
       </c>
       <c r="D58" s="1" t="n"/>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F58" t="n">
         <v>4</v>
@@ -4315,39 +4550,49 @@
       </c>
       <c r="H58" s="1" t="n"/>
       <c r="I58" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="N58" t="n">
         <v>3</v>
       </c>
-      <c r="O58" s="2" t="n">
-        <v>2</v>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" s="1" t="n"/>
+      <c r="Q58" t="s">
+        <v>282</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1" t="n"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="n"/>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
@@ -4357,29 +4602,39 @@
       </c>
       <c r="H59" s="1" t="n"/>
       <c r="I59" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="N59" t="n">
         <v>3</v>
       </c>
-      <c r="O59" s="3" t="n">
-        <v>1</v>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" s="1" t="n"/>
+      <c r="Q59" t="s">
+        <v>287</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1" t="n"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -4389,39 +4644,49 @@
       </c>
       <c r="D60" s="1" t="n"/>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="n"/>
       <c r="I60" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" s="1" t="n"/>
+      <c r="Q60" t="s">
+        <v>292</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="n"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -4431,27 +4696,27 @@
       </c>
       <c r="D61" s="1" t="n"/>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="n"/>
       <c r="I61" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="N61" t="n">
         <v>4</v>
@@ -4460,10 +4725,20 @@
         <v>0</v>
       </c>
       <c r="P61" s="1" t="n"/>
+      <c r="Q61" t="s">
+        <v>297</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1" t="n"/>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
@@ -4473,27 +4748,27 @@
       </c>
       <c r="D62" s="1" t="n"/>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="n"/>
       <c r="I62" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="N62" t="n">
         <v>4</v>
@@ -4502,10 +4777,20 @@
         <v>0</v>
       </c>
       <c r="P62" s="1" t="n"/>
+      <c r="Q62" t="s">
+        <v>302</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="n"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B63" t="n">
         <v>4</v>
@@ -4515,39 +4800,49 @@
       </c>
       <c r="D63" s="1" t="n"/>
       <c r="E63" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="n"/>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" s="1" t="n"/>
+      <c r="Q63" t="s">
+        <v>307</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="n"/>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B64" t="n">
         <v>4</v>
@@ -4557,7 +4852,7 @@
       </c>
       <c r="D64" s="1" t="n"/>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
@@ -4567,29 +4862,39 @@
       </c>
       <c r="H64" s="1" t="n"/>
       <c r="I64" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" s="1" t="n"/>
+      <c r="Q64" t="s">
+        <v>312</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="n"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B65" t="n">
         <v>4</v>
@@ -4599,39 +4904,49 @@
       </c>
       <c r="D65" s="1" t="n"/>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="n"/>
       <c r="I65" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="N65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" s="1" t="n"/>
+      <c r="Q65" t="s">
+        <v>317</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1" t="n"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B66" t="n">
         <v>4</v>
@@ -4641,27 +4956,27 @@
       </c>
       <c r="D66" s="1" t="n"/>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="n"/>
       <c r="I66" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="N66" t="n">
         <v>4</v>
@@ -4670,20 +4985,30 @@
         <v>0</v>
       </c>
       <c r="P66" s="1" t="n"/>
+      <c r="Q66" t="s">
+        <v>322</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1" t="n"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="n"/>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
@@ -4693,7 +5018,7 @@
       </c>
       <c r="H67" s="1" t="n"/>
       <c r="I67" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="J67" t="n">
         <v>4</v>
@@ -4703,19 +5028,29 @@
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" s="1" t="n"/>
+      <c r="Q67" t="s">
+        <v>327</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1" t="n"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
@@ -4725,7 +5060,7 @@
       </c>
       <c r="D68" s="1" t="n"/>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
@@ -4735,59 +5070,69 @@
       </c>
       <c r="H68" s="1" t="n"/>
       <c r="I68" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" t="s">
+        <v>332</v>
+      </c>
+      <c r="R68" t="n">
         <v>5</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1" t="n"/>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="n"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="n"/>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="n"/>
       <c r="I69" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="J69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="N69" t="n">
         <v>4</v>
@@ -4796,10 +5141,20 @@
         <v>0</v>
       </c>
       <c r="P69" s="1" t="n"/>
+      <c r="Q69" t="s">
+        <v>337</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1" t="n"/>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -4809,39 +5164,49 @@
       </c>
       <c r="D70" s="1" t="n"/>
       <c r="E70" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" s="1" t="n"/>
       <c r="I70" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" s="1" t="n"/>
+      <c r="Q70" t="s">
+        <v>342</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="n"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -4851,17 +5216,17 @@
       </c>
       <c r="D71" s="1" t="n"/>
       <c r="E71" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="1" t="n"/>
       <c r="I71" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -4871,49 +5236,59 @@
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" s="1" t="n"/>
+      <c r="Q71" t="s">
+        <v>347</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="T71" s="1" t="n"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="n"/>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="1" t="n"/>
       <c r="I72" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="N72" t="n">
         <v>5</v>
@@ -4922,72 +5297,92 @@
         <v>0</v>
       </c>
       <c r="P72" s="1" t="n"/>
+      <c r="Q72" t="s">
+        <v>352</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" s="1" t="n"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="n"/>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" s="1" t="n"/>
       <c r="I73" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" s="1" t="n"/>
+      <c r="Q73" t="s">
+        <v>357</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T73" s="1" t="n"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="n"/>
       <c r="E74" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" s="1" t="n"/>
       <c r="I74" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="J74" t="n">
         <v>5</v>
@@ -4997,7 +5392,7 @@
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
@@ -5006,20 +5401,30 @@
         <v>0</v>
       </c>
       <c r="P74" s="1" t="n"/>
+      <c r="Q74" t="s">
+        <v>362</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" s="1" t="n"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="n"/>
       <c r="E75" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="F75" t="n">
         <v>5</v>
@@ -5029,15 +5434,35 @@
       </c>
       <c r="H75" s="1" t="n"/>
       <c r="I75" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="L75" s="1" t="n"/>
+      <c r="M75" t="s">
+        <v>366</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" t="s">
+        <v>367</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T75" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5050,14 +5475,338 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4"/>
+    <row r="4" spans="1:4"/>
+    <row r="5" spans="1:4"/>
+    <row r="6" spans="1:4"/>
+    <row r="7" spans="1:4"/>
+    <row r="8" spans="1:4"/>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4"/>
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4"/>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4"/>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4"/>
+    <row r="22" spans="1:4"/>
+    <row r="23" spans="1:4"/>
+    <row r="24" spans="1:4"/>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4"/>
+    <row r="31" spans="1:4"/>
+    <row r="32" spans="1:4"/>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4"/>
+    <row r="38" spans="1:4"/>
+    <row r="39" spans="1:4"/>
+    <row r="40" spans="1:4"/>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4"/>
+    <row r="43" spans="1:4"/>
+    <row r="44" spans="1:4"/>
+    <row r="45" spans="1:4"/>
+    <row r="46" spans="1:4"/>
+    <row r="47" spans="1:4"/>
+    <row r="48" spans="1:4"/>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4"/>
+    <row r="51" spans="1:4"/>
+    <row r="52" spans="1:4"/>
+    <row r="53" spans="1:4"/>
+    <row r="54" spans="1:4"/>
+    <row r="55" spans="1:4"/>
+    <row r="56" spans="1:4"/>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Caren Glowa_.xlsx
+++ b/Caren Glowa_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>Date</t>
   </si>
@@ -1131,10 +1131,64 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
+    <t>03/19/18 - 03/26/18</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 7:40 AM -  Mon 9:35 AM</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 7:55 AM -  Tue 8:55 AM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Tue 2:10 PM -  Tue 2:35 PM</t>
@@ -1187,7 +1241,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -1223,6 +1277,16 @@
         <bgColor rgb="00f2b8ea"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1236,13 +1300,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -5475,7 +5541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5488,9 +5554,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5503,10 +5573,16 @@
       <c r="D1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B2" t="n">
         <v>1.5</v>
@@ -5517,14 +5593,90 @@
       <c r="D2" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:4"/>
-    <row r="4" spans="1:4"/>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="G3" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J4" s="7" t="n"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="7" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" s="7" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5537,10 +5689,18 @@
       <c r="D9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B10" t="n">
         <v>1.92</v>
@@ -5551,10 +5711,16 @@
       <c r="D10" t="n">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B11" t="n">
         <v>3.67</v>
@@ -5566,12 +5732,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5585,9 +5751,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B18" t="n">
         <v>1.35</v>
@@ -5599,9 +5765,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B19" t="n">
         <v>4.17</v>
@@ -5613,9 +5779,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B20" t="n">
         <v>4.33</v>
@@ -5627,11 +5793,11 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -5645,9 +5811,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B26" t="n">
         <v>1.55</v>
@@ -5659,9 +5825,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B27" t="n">
         <v>2.86</v>
@@ -5673,9 +5839,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B28" t="n">
         <v>2.78</v>
@@ -5687,9 +5853,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="B29" t="n">
         <v>3.67</v>
@@ -5701,10 +5867,10 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -5718,9 +5884,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B34" t="n">
         <v>2.3</v>
@@ -5732,9 +5898,9 @@
         <v>1.15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B35" t="n">
         <v>3.09</v>
@@ -5746,9 +5912,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B36" t="n">
         <v>4.67</v>
@@ -5760,11 +5926,11 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -5778,14 +5944,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:4"/>
-    <row r="43" spans="1:4"/>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="42" spans="1:10"/>
+    <row r="43" spans="1:10"/>
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5799,13 +5965,13 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:4"/>
-    <row r="51" spans="1:4"/>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="50" spans="1:10"/>
+    <row r="51" spans="1:10"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Caren Glowa_.xlsx
+++ b/Caren Glowa_.xlsx
@@ -1229,7 +1229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1239,6 +1239,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1300,15 +1308,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -5554,10 +5564,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5573,7 +5583,7 @@
       <c r="D1" t="s">
         <v>370</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>371</v>
       </c>
       <c r="H1" t="s">
@@ -5607,74 +5617,74 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.92</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="J3" s="7" t="n"/>
+      <c r="J3" s="8" t="n"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.97</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="J4" s="7" t="n"/>
+      <c r="J4" s="8" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>1.03</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="J5" s="7" t="n"/>
+      <c r="J5" s="8" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.84</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="J6" s="7" t="n"/>
+      <c r="J6" s="8" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="J7" s="7" t="n"/>
+      <c r="J7" s="8" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="J8" s="7" t="n"/>
+      <c r="J8" s="8" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -5689,14 +5699,14 @@
       <c r="D9" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="J9" s="7" t="n"/>
+      <c r="J9" s="8" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -5711,12 +5721,14 @@
       <c r="D10" t="n">
         <v>1.08</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.97</v>
       </c>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
